--- a/spc/results/t01/M_0.25_k_0.05/omp_CLEAN/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.25_k_0.05/omp_CLEAN/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,601 +865,6 @@
         <v>169.9580867473686</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>168.4047157038098</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>166.8914894004168</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>165.2945795495671</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>163.599914183243</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>161.8407244459883</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>160.5592417994226</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>159.3543436139559</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>158.0539645059143</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>156.6933852024321</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>155.5141238530249</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>154.2317373375609</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>153.0281482426042</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>151.8449298980972</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>150.6448756365971</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>149.3826019806802</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>147.9879108791734</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>146.5862036166945</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>145.1142960264456</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>143.8104953209559</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>142.4047601360539</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>141.2395715678925</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>140.1548643678441</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>138.9740508465871</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>137.703502311778</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>136.4655550113204</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>135.2567600606424</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>134.0610486339064</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>132.8538880282696</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>131.7706045597867</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>130.6912673692989</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>129.4543187189425</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>128.2792087017114</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>127.0521488254773</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>125.9005062819286</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>124.7435609548293</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>123.4352251942674</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122.2592262149266</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>121.0687514907733</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>119.9150062345992</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>118.7099350258625</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>117.5377834983932</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>116.4361354925832</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>115.3010873845753</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>114.3210638080579</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>113.1990996565148</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>112.2371834861962</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>111.187021167953</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>110.2268606391675</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>109.4197174758793</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>108.5055800763736</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>107.5761797449336</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>106.7668651020753</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>105.8947184780994</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>105.0978418482862</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>104.2938853241618</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>103.4560978346284</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>102.6843127130277</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>101.9500405433737</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>101.1521407877029</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>100.4994979774459</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>99.78088745973027</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>99.07738539832479</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>98.3895388805992</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>97.64568705740523</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>96.98635587542637</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>96.34852353716042</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>95.76528133329258</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>95.14031514943524</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>94.51366273203256</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>93.860623214594</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>93.12122426938761</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>92.54725769569332</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>91.89712338210803</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>91.21539799904251</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>90.63845723982038</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>90.0188896416672</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>89.39640544084041</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>88.87019499369762</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>88.31868048602043</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>87.70216491083812</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>87.09983252599474</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>86.54783111995211</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>85.9951338748413</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>85.44750843155022</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>84.9310484634745</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>84.39645737230602</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>83.84410347287</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>83.25323369478052</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>82.75813526562891</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>82.2342071642629</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>81.73919326040084</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>81.1536212748252</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>80.61940111090138</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>80.09514109980542</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>79.61175146561058</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>79.07274134184345</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>78.6017938161844</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>78.13320525490666</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>77.68219156219071</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>77.16092529935455</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>76.69067115781075</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>76.24329251121327</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>75.73359847761647</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>75.26662118787665</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>74.81548646670045</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>74.37476274533023</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>73.94016602077936</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>73.55587810801092</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>73.10638835342212</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>72.64838354990412</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>72.23144807389326</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>71.86120173575404</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>71.45451723499842</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>71.02661955333421</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>70.59109920644202</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>70.13553981046587</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>69.70384395427033</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>69.22733305107312</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>68.71878830523947</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
